--- a/[2] 설계/3조_요구사항_정의서.xlsx
+++ b/[2] 설계/3조_요구사항_정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\TransCompiler_for_beginner\[2] 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B1F012-6253-4417-B727-1A2A3EA4A2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA722EA-1C72-4A6C-86BC-D45AE1B67EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,10 @@
   </si>
   <si>
     <t>10 ~ 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1224,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1241,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1258,7 +1262,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1862,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1909,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>55</v>
@@ -1949,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>55</v>
@@ -2009,7 +2013,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>63</v>
@@ -2029,7 +2033,7 @@
         <v>64</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>63</v>
@@ -2149,7 +2153,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>82</v>
@@ -2169,7 +2173,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>82</v>
